--- a/tests/data/expected/Res_MissingVillageName.xlsx
+++ b/tests/data/expected/Res_MissingVillageName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>CODE_LOCATION</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>VILL_003</t>
+  </si>
+  <si>
+    <t>Num of cases where malaria RTD was positive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +71,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,8 +95,14 @@
         <fgColor rgb="FFC6E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,16 +125,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F1" activeCellId="1" sqref="F1:F13 F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +469,10 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +488,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,8 +508,9 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -485,8 +524,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,8 +540,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,8 +558,9 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,8 +574,9 @@
         <v>2</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,8 +590,9 @@
         <v>3</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,8 +608,9 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,8 +624,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -594,8 +640,9 @@
         <v>3</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,8 +656,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,8 +674,9 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -641,6 +690,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
